--- a/erick/Registrados Banco 2020-11-23.xlsx
+++ b/erick/Registrados Banco 2020-11-23.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -44,22 +44,49 @@
     <t>Banco</t>
   </si>
   <si>
+    <t>Alison Melanie Moreno pabon</t>
+  </si>
+  <si>
+    <t>VIP Occidente</t>
+  </si>
+  <si>
+    <t>Prestada</t>
+  </si>
+  <si>
+    <t>Rc1076251237</t>
+  </si>
+  <si>
+    <t>Valerie melanie abril moreno</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>0550477000080846</t>
+  </si>
+  <si>
+    <t>Davivienda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julieth marcela Fernandez zoque </t>
   </si>
   <si>
-    <t>VIP Occidente</t>
-  </si>
-  <si>
     <t>Propia</t>
   </si>
   <si>
     <t xml:space="preserve">Julieth marcela  fernandez zoque </t>
   </si>
   <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
-    <t>Davivienda</t>
+    <t>Erika Patricia Zambrano Escorcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1143143918 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Patricia Zambrano Escorcia </t>
+  </si>
+  <si>
+    <t>0550488417331854</t>
   </si>
   <si>
     <t>maryury  Grimaldo quiroz</t>
@@ -80,10 +107,25 @@
     <t>Ingrid GAMBOA</t>
   </si>
   <si>
-    <t>juan jose maldonado la cruz</t>
-  </si>
-  <si>
-    <t>Juan Maldonado</t>
+    <t>Sara esperanza beltran lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara esperanza beltran lopez </t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>Banco Caja Social</t>
+  </si>
+  <si>
+    <t>Ingri estefany avendaño torres</t>
+  </si>
+  <si>
+    <t>Ingri Avendaño</t>
+  </si>
+  <si>
+    <t>0550488405205219</t>
   </si>
   <si>
     <t>maria gabriela villamar camacho</t>
@@ -92,13 +134,214 @@
     <t>Maria Gabriela Villamar Camacho</t>
   </si>
   <si>
+    <t xml:space="preserve">Yajaira  urania narvaez Narváez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yajaira Urania Narvaez Argaez </t>
+  </si>
+  <si>
+    <t>0110407542342202548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Tatiana  Cely Riaño </t>
+  </si>
+  <si>
+    <t>Angela Tatiana cely Riaño</t>
+  </si>
+  <si>
+    <t>mayra alejandra mosquera mosquera</t>
+  </si>
+  <si>
+    <t>Mayra Alejandra Mosquera Mosquera</t>
+  </si>
+  <si>
+    <t>0724304977</t>
+  </si>
+  <si>
+    <t>BBVA Colombia</t>
+  </si>
+  <si>
+    <t>haanna michel Rangel Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026304115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haanna Michel Rangel Gomez </t>
+  </si>
+  <si>
+    <t>Colpatria</t>
+  </si>
+  <si>
+    <t>mileidis  anaya madarriaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mileidis anaya </t>
+  </si>
+  <si>
+    <t>004600184156</t>
+  </si>
+  <si>
+    <t>LUZ ALBENIS MEJIA MOLANO</t>
+  </si>
+  <si>
+    <t>Luz Albenis MejiaMolano</t>
+  </si>
+  <si>
+    <t>BRAYAN STIVEN DIAZ MARIN</t>
+  </si>
+  <si>
+    <t>Brayan Stiven</t>
+  </si>
+  <si>
+    <t>Banco de Bogotá</t>
+  </si>
+  <si>
     <t>Andrea del pilar  conde rocha</t>
   </si>
   <si>
     <t xml:space="preserve">Andrea conde </t>
   </si>
   <si>
-    <t>Banco Caja Social</t>
+    <t>LAURA DANIELA OBANDO GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura obando </t>
+  </si>
+  <si>
+    <t>Jhonibelth Enrique Jaramillo Riascos</t>
+  </si>
+  <si>
+    <t>Jhonibelth Enrique Jaramillo riascos</t>
+  </si>
+  <si>
+    <t>Geraldine   rojas poveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeraldine rojas </t>
+  </si>
+  <si>
+    <t>080195076</t>
+  </si>
+  <si>
+    <t>Natalia   ariza  torres</t>
+  </si>
+  <si>
+    <t>Natalia ariza torres</t>
+  </si>
+  <si>
+    <t>Miguel Alfonso Martinez Paez</t>
+  </si>
+  <si>
+    <t>086821032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL Alberto Hernández pirela </t>
+  </si>
+  <si>
+    <t>237 03264891</t>
+  </si>
+  <si>
+    <t>maria paula cepeda peña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria paula </t>
+  </si>
+  <si>
+    <t>Natalia Andrea  Niño Fuquene</t>
+  </si>
+  <si>
+    <t>Natalia Andrea Niño Fuquene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Milena Rodríguez  Rodríguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Milena Rodriguez Rodriguez </t>
+  </si>
+  <si>
+    <t>Deryl Marie Campos Sanchez</t>
+  </si>
+  <si>
+    <t>Saida Yamile Romero Ospina</t>
+  </si>
+  <si>
+    <t>Steven  Eduardo Linares  Buitrago</t>
+  </si>
+  <si>
+    <t>Steven Eduardo</t>
+  </si>
+  <si>
+    <t>cherayll yuviry chacon moreno</t>
+  </si>
+  <si>
+    <t>Cherayll Chacón</t>
+  </si>
+  <si>
+    <t>sharon  nikol rodriguez andoque</t>
+  </si>
+  <si>
+    <t>Blanca andoque zumaeta</t>
+  </si>
+  <si>
+    <t>Yesica  Bernal Lopez</t>
+  </si>
+  <si>
+    <t>Yesica Bernal López</t>
+  </si>
+  <si>
+    <t>Leidy Viviana Ardila Guevara</t>
+  </si>
+  <si>
+    <t>luz omaida sanchez rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luz omaria sanchez </t>
+  </si>
+  <si>
+    <t>juan camilo pineda torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Camilo Pineda Torres </t>
+  </si>
+  <si>
+    <t>0139196083</t>
+  </si>
+  <si>
+    <t>Michelle Carolina Molina Tarazona</t>
+  </si>
+  <si>
+    <t>jhonson alexander ferreira munevar</t>
+  </si>
+  <si>
+    <t>Jhonson ferreira</t>
+  </si>
+  <si>
+    <t>Jhonatan Esteeven Vásquez Martínez</t>
+  </si>
+  <si>
+    <t>Frederlin elena zambrano rojas</t>
+  </si>
+  <si>
+    <t>Nelysmar Herreras</t>
+  </si>
+  <si>
+    <t>Kevi esmeiker delgado garcia</t>
+  </si>
+  <si>
+    <t>Johan Fabián morales</t>
+  </si>
+  <si>
+    <t>03143649387</t>
+  </si>
+  <si>
+    <t>Diana isabel melkiors albornoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana isabel melkiors </t>
+  </si>
+  <si>
+    <t>0472249549</t>
   </si>
   <si>
     <t>Dayanna Carolina cardenas camacho</t>
@@ -110,9 +353,6 @@
     <t>Karen Adriana Carreño Mora</t>
   </si>
   <si>
-    <t>Prestada</t>
-  </si>
-  <si>
     <t>Alberth Santiago Peña Bustos</t>
   </si>
   <si>
@@ -140,9 +380,6 @@
     <t>Camilo Andrés ramos peña</t>
   </si>
   <si>
-    <t>Banco de Bogotá</t>
-  </si>
-  <si>
     <t>stefany  paola cely florez</t>
   </si>
   <si>
@@ -173,9 +410,6 @@
     <t>Kendry lorena mancera jimenez</t>
   </si>
   <si>
-    <t>BBVA Colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yulieth Carolina  González  Oviedo </t>
   </si>
   <si>
@@ -224,9 +458,6 @@
     <t>0162015879</t>
   </si>
   <si>
-    <t>Colpatria</t>
-  </si>
-  <si>
     <t>laura sofia mora lopez</t>
   </si>
   <si>
@@ -248,6 +479,9 @@
     <t>Marlly deyena valencia</t>
   </si>
   <si>
+    <t>Banco caja social</t>
+  </si>
+  <si>
     <t>gilma  victoria valencia</t>
   </si>
   <si>
@@ -263,10 +497,10 @@
     <t>LEIDI LAURA RUIZ MARTINEZ</t>
   </si>
   <si>
-    <t>Lenin Elith Melendez Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0550488416342290 </t>
+    <t>jhon moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462900065337 </t>
   </si>
   <si>
     <t>Lilibeth  Ramos Vega</t>
@@ -275,6 +509,18 @@
     <t>Lilibeth ramos vega</t>
   </si>
   <si>
+    <t>Federico  Szubert Corvalan</t>
+  </si>
+  <si>
+    <t>AAD575127</t>
+  </si>
+  <si>
+    <t>Angie Eliana Medina Diaz</t>
+  </si>
+  <si>
+    <t>086275369</t>
+  </si>
+  <si>
     <t>jesus alberto jaimes moran</t>
   </si>
   <si>
@@ -287,6 +533,12 @@
     <t>004400217594</t>
   </si>
   <si>
+    <t>sonia  rodriguez casallas</t>
+  </si>
+  <si>
+    <t>SONIA RODRIGUEZ CASALLAS</t>
+  </si>
+  <si>
     <t>stefany gissel sarmiento copete</t>
   </si>
   <si>
@@ -299,6 +551,87 @@
     <t>0974053423</t>
   </si>
   <si>
+    <t>veronica del valle marquez rivas</t>
+  </si>
+  <si>
+    <t>Brayan rodriguez rivero</t>
+  </si>
+  <si>
+    <t>ingrid Yulieth  bernal hernandez</t>
+  </si>
+  <si>
+    <t>Ingrid Yulieth Bernal Hernandez</t>
+  </si>
+  <si>
+    <t>Antonny Jose Soto fernandez</t>
+  </si>
+  <si>
+    <t>Denisse Giannyna Gonzalez Cifuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Carolina  Lopez  Guerrero </t>
+  </si>
+  <si>
+    <t>Andrea Carolina Lopez Guerrero</t>
+  </si>
+  <si>
+    <t>173-902850-43</t>
+  </si>
+  <si>
+    <t>eileen galeth delgado medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eileen </t>
+  </si>
+  <si>
+    <t>mariangis  Estefani de faria vergara</t>
+  </si>
+  <si>
+    <t>Luis paipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ricardo  jose garcia  godoy </t>
+  </si>
+  <si>
+    <t>ender MilanCollenss valero lopez</t>
+  </si>
+  <si>
+    <t>Maria Moncada</t>
+  </si>
+  <si>
+    <t>Diana Sofia Moncada Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1007732710 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Sofía Moncada Rodríguez </t>
+  </si>
+  <si>
+    <t>Laura  Daniela  Algarra Tavera</t>
+  </si>
+  <si>
+    <t>Laura Algarra</t>
+  </si>
+  <si>
+    <t>0974067027</t>
+  </si>
+  <si>
+    <t>Luz Marina Ayala Sepulveda</t>
+  </si>
+  <si>
+    <t>Deisy Katerin Bohorquez Albarracin</t>
+  </si>
+  <si>
+    <t>Deisy Katerin Bohorquez</t>
+  </si>
+  <si>
+    <t>magda rocio ackine castillo</t>
+  </si>
+  <si>
+    <t>Magda rocio ackine</t>
+  </si>
+  <si>
     <t>Tania Marcela Henao Dorado</t>
   </si>
   <si>
@@ -344,12 +677,120 @@
     <t>Luciana</t>
   </si>
   <si>
+    <t>OLGA  YAMILE  DIAZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Occidente I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Yamile Diaz Rodriguez </t>
+  </si>
+  <si>
+    <t>Mariana Lucia Ramirez Cardenas</t>
+  </si>
+  <si>
+    <t>Édgar Alejandro Ortiz Ubaque</t>
+  </si>
+  <si>
+    <t>0550488411145169</t>
+  </si>
+  <si>
+    <t>Edgar Alejandro Ortiz Ubaque</t>
+  </si>
+  <si>
+    <t>Jenny Carolina Marin Tobon</t>
+  </si>
+  <si>
+    <t>Jenny Carolina Marín tobon</t>
+  </si>
+  <si>
+    <t>Dalia Aenlly Oviedo Cifuentes</t>
+  </si>
+  <si>
+    <t>dalia aenlly oviedo cifuentes</t>
+  </si>
+  <si>
+    <t>198000208-35</t>
+  </si>
+  <si>
+    <t>Reymon David Almera Bermudez</t>
+  </si>
+  <si>
+    <t>VIP Suba</t>
+  </si>
+  <si>
+    <t>Ronald Almera</t>
+  </si>
+  <si>
+    <t>Camilo  Palacio Romero</t>
+  </si>
+  <si>
+    <t>camilo palacios romero</t>
+  </si>
+  <si>
+    <t>Jhonathan  Alejandro Farias Lozada</t>
+  </si>
+  <si>
+    <t>Valentina Moreno Peraza</t>
+  </si>
+  <si>
+    <t>101-000247-19</t>
+  </si>
+  <si>
+    <t>Antonella Maria Bustamante  Riquett</t>
+  </si>
+  <si>
+    <t>antonella maria bustamante riquett</t>
+  </si>
+  <si>
+    <t>Dana Nicole Gambos Zarmiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dana Nicole Gamboa Sarmiento </t>
+  </si>
+  <si>
+    <t>Ingrid  Lenis Montero</t>
+  </si>
+  <si>
+    <t>Íngrid Lenis Montero</t>
+  </si>
+  <si>
+    <t>aura  esther  pacheco orozco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aura esther pacheco orozco </t>
+  </si>
+  <si>
+    <t>005000337526</t>
+  </si>
+  <si>
+    <t>andrea   catherine  tovar galavis</t>
+  </si>
+  <si>
+    <t>Andrea Catherine Tovar Galaviz</t>
+  </si>
+  <si>
+    <t>stephin  dayanna tellez mercado</t>
+  </si>
+  <si>
+    <t>Stephin Dayanna Téllez Mercado</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Peña Torres</t>
+  </si>
+  <si>
+    <t>030203962</t>
+  </si>
+  <si>
+    <t>anndrei vanessa lopez reinoso</t>
+  </si>
+  <si>
+    <t>Oscar Fabian Otero Mendez</t>
+  </si>
+  <si>
     <t>maria elena anaya guerra</t>
   </si>
   <si>
-    <t>VIP Suba</t>
-  </si>
-  <si>
     <t>Alexis Tique</t>
   </si>
   <si>
@@ -380,12 +821,6 @@
     <t xml:space="preserve">Daisy Quintana </t>
   </si>
   <si>
-    <t>eileen galeth delgado medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eileen </t>
-  </si>
-  <si>
     <t>angie fainori romero cano</t>
   </si>
   <si>
@@ -404,6 +839,15 @@
     <t>085401834</t>
   </si>
   <si>
+    <t>juan jose reina riaño</t>
+  </si>
+  <si>
+    <t>sonia emilsen ceballos restrepo</t>
+  </si>
+  <si>
+    <t>sonia ceballos</t>
+  </si>
+  <si>
     <t>luisa  fernanda valero cubi</t>
   </si>
   <si>
@@ -434,12 +878,51 @@
     <t>Francia</t>
   </si>
   <si>
+    <t>rosa Yorley hurtado medina</t>
+  </si>
+  <si>
+    <t>077342935</t>
+  </si>
+  <si>
+    <t>Rosa Yorley Hurtado Medina</t>
+  </si>
+  <si>
+    <t>428-000003-07</t>
+  </si>
+  <si>
+    <t>kevin alberto  nieto mejia</t>
+  </si>
+  <si>
+    <t>kevin alberto nieto mejia</t>
+  </si>
+  <si>
+    <t>Jose Luis Giro Velazcos</t>
+  </si>
+  <si>
+    <t>Genesis garcia</t>
+  </si>
+  <si>
     <t>brayan estiben gonzalez lurduy</t>
   </si>
   <si>
     <t xml:space="preserve">Brayan estiben gonzalez Lurduy </t>
   </si>
   <si>
+    <t>erica nayerly burgos correa</t>
+  </si>
+  <si>
+    <t>yoliria estela griman cuello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoliria Griman Cuello </t>
+  </si>
+  <si>
+    <t>julie Paola Bojaca Ahumada</t>
+  </si>
+  <si>
+    <t>julie paola bojaca</t>
+  </si>
+  <si>
     <t>hector santiago vega valderrama</t>
   </si>
   <si>
@@ -461,6 +944,18 @@
     <t>Yaris maria Estremor torres</t>
   </si>
   <si>
+    <t>laura milena carrillo aranda</t>
+  </si>
+  <si>
+    <t>laura milena carrillo</t>
+  </si>
+  <si>
+    <t>cleiser marina mota  torres</t>
+  </si>
+  <si>
+    <t>cleiser mota</t>
+  </si>
+  <si>
     <t xml:space="preserve">paola andrea duarte castiblanco </t>
   </si>
   <si>
@@ -470,13 +965,10 @@
     <t xml:space="preserve">168-984188-08 </t>
   </si>
   <si>
-    <t>mariangis  Estefani de faria vergara</t>
-  </si>
-  <si>
-    <t>Luis paipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ricardo  jose garcia  godoy </t>
+    <t>karen  lizzeth  bolaños peña</t>
+  </si>
+  <si>
+    <t>karen lizeth bolaños peña</t>
   </si>
   <si>
     <t>fabiany  lisset delgado daza</t>
@@ -488,9 +980,6 @@
     <t>ronald alejandro  almera bermudez</t>
   </si>
   <si>
-    <t>Ronald Almera</t>
-  </si>
-  <si>
     <t>005500246615</t>
   </si>
   <si>
@@ -503,6 +992,12 @@
     <t>03005244714</t>
   </si>
   <si>
+    <t>paulo andres martinez ayala</t>
+  </si>
+  <si>
+    <t>laura carolina guerra ramirez</t>
+  </si>
+  <si>
     <t>angie lorena calderon lozano</t>
   </si>
   <si>
@@ -515,10 +1010,10 @@
     <t>Sor ledis torres cifuentes</t>
   </si>
   <si>
-    <t>Corriente</t>
-  </si>
-  <si>
-    <t>Banco Agrario de Colombia</t>
+    <t>Laura Vanessa Puentes Barrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Vanessa Puentes Barrera </t>
   </si>
   <si>
     <t>maria alejandra lobos cardenas</t>
@@ -527,7 +1022,7 @@
     <t xml:space="preserve">1015442689 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Alejandra Lobos CÃ¡rdenas </t>
+    <t xml:space="preserve">Maria Alejandra Lobos Cardenas </t>
   </si>
   <si>
     <t>leidy dayana porras quintero</t>
@@ -545,13 +1040,19 @@
     <t>912-143747-36</t>
   </si>
   <si>
-    <t>marlon  londoÃ±o zapata</t>
+    <t>marlon  londoño zapata</t>
   </si>
   <si>
     <t>Edilsa López Suavita</t>
   </si>
   <si>
-    <t>tomy  jeferson muÃ±oz calderon</t>
+    <t>laura  nathali olivos pelaez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura nathali olivos </t>
+  </si>
+  <si>
+    <t>tomy  jeferson muñoz calderon</t>
   </si>
   <si>
     <t>Tomy Jeferson Muñoz Calderón</t>
@@ -566,7 +1067,7 @@
     <t>002870719198</t>
   </si>
   <si>
-    <t>luz angela loaiza ortegon</t>
+    <t>luz Angela loaiza ortegon</t>
   </si>
   <si>
     <t>Luz angela</t>
@@ -578,7 +1079,7 @@
     <t>Valentina chacon prieto</t>
   </si>
   <si>
-    <t>cristian andres urrego piÃ±eros</t>
+    <t>cristian andres urrego piñeros</t>
   </si>
   <si>
     <t xml:space="preserve">Cristina Urrego PiÃ±eros </t>
@@ -587,9 +1088,6 @@
     <t>089351142</t>
   </si>
   <si>
-    <t>Banco de BogotÃ¡</t>
-  </si>
-  <si>
     <t>yenifer lizeth tauta garcia</t>
   </si>
   <si>
@@ -605,6 +1103,33 @@
     <t>0996036489</t>
   </si>
   <si>
+    <t>gabriela carolina ramirez vera</t>
+  </si>
+  <si>
+    <t>Lennys segundo morles</t>
+  </si>
+  <si>
+    <t>113-000001-71</t>
+  </si>
+  <si>
+    <t>jose gregorio borrero  ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge luis casique useche </t>
+  </si>
+  <si>
+    <t>0550488408039763</t>
+  </si>
+  <si>
+    <t>Yasmin  Gomez Ariza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene Beltrán Gomes </t>
+  </si>
+  <si>
+    <t>03208322763</t>
+  </si>
+  <si>
     <t xml:space="preserve">cristo  francisco garcia polanco </t>
   </si>
   <si>
@@ -617,13 +1142,13 @@
     <t>Yuli Aguilar</t>
   </si>
   <si>
-    <t>yilber eduardo herrenio chavarro</t>
-  </si>
-  <si>
-    <t>Yilber Eduardo Herreño Chavarro</t>
-  </si>
-  <si>
-    <t>053862699</t>
+    <t>Yeritzo . Culma Aroca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeritzo culma aroca </t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
   <si>
     <t>nikol daniela naranjo montealegre</t>
@@ -635,13 +1160,22 @@
     <t>467-000001-49</t>
   </si>
   <si>
+    <t>faber andrey rubio delgado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favor Andrey rubio delgado </t>
+  </si>
+  <si>
+    <t>070987479</t>
+  </si>
+  <si>
     <t>eyber jesus flores torres</t>
   </si>
   <si>
-    <t>Angie Lorena calderon Lozano</t>
-  </si>
-  <si>
-    <t>180-894283-40</t>
+    <t>Cleiser Marina Mota Torres</t>
+  </si>
+  <si>
+    <t>241-00013254</t>
   </si>
 </sst>
 </file>
@@ -985,10 +1519,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1038,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1136884495</v>
+        <v>1020788721</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1046,220 +1580,220 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>1136884495</v>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1900216316</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>1012398153</v>
+        <v>1136884495</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>1012398153</v>
+        <v>1136884495</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1900216316</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>52770566</v>
+        <v>1143143918</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>52770566</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>488417089809</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>955948708101993</v>
+        <v>1012398153</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>955948708101993</v>
+        <v>1012398153</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
-        <v>77778787212121</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>1000588706</v>
+        <v>52770566</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>1000588706</v>
+        <v>52770566</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
-        <v>26400017572</v>
+        <v>488417089809</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>1033817054</v>
+        <v>1031806196</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>1033817054</v>
+        <v>1031806196</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1">
-        <v>24092930719</v>
+        <v>24098656468</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
-        <v>1010228756</v>
+        <v>1022418286</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
-        <v>1010228756</v>
+        <v>1022418286</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
-        <v>65808471927</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
-        <v>1001054528</v>
+        <v>1000588706</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>1012444709</v>
+        <v>1000588706</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="H9" s="1">
+        <v>26400017572</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -1267,57 +1801,57 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
-        <v>1000623069</v>
+        <v>1090484873</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1">
-        <v>1000623069</v>
+        <v>1090484873</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
-        <v>1026306100</v>
+        <v>1000066526</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
-        <v>1023966080</v>
+        <v>1000066526</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1">
-        <v>24098174409</v>
+        <v>91203508773</v>
       </c>
       <c r="I11" t="s">
         <v>27</v>
@@ -1325,300 +1859,300 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
-        <v>1022375692</v>
+        <v>1023894543</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1">
-        <v>1022375692</v>
+        <v>1023894543</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1">
-        <v>390181790</v>
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
-        <v>1023888816</v>
+        <v>1026304115</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1023888816</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4762022915</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
-        <v>1053845260</v>
+        <v>1015418052</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1">
-        <v>1022375692</v>
+        <v>1015418052</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
-        <v>390181790</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>1233501956</v>
+        <v>52237176</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
-        <v>1233501956</v>
+        <v>52237176</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1">
-        <v>91201124404</v>
+        <v>25085680733</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1">
-        <v>1012446384</v>
+        <v>1002545927</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>12233501956</v>
+        <v>1002545926</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1">
-        <v>91201124404</v>
+        <v>329182828</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
-        <v>1019099613</v>
+        <v>1033817054</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
-        <v>1019099613</v>
+        <v>1033817054</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1">
-        <v>268252426</v>
+        <v>24092930719</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1">
-        <v>1012393169</v>
+        <v>1030692387</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>1012393169</v>
+        <v>1030692387</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1">
-        <v>488411573204</v>
+        <v>202012170</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
-        <v>1000122810</v>
+        <v>1034310780</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
-        <v>1012393169</v>
+        <v>1034310789</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1">
-        <v>488411573204</v>
+        <v>123420523</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1">
-        <v>1233691732</v>
+        <v>1019064385</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>1233691732</v>
+        <v>1019064385</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1">
-        <v>91213207216</v>
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1">
-        <v>1023000217</v>
+        <v>1193419756</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
-        <v>1023000217</v>
+        <v>1193419756</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="H21" s="1">
+        <v>488417090625</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1233510580</v>
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1627,770 +2161,768 @@
         <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>1233691732</v>
+        <v>5059937304</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1">
-        <v>91213207216</v>
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
-        <v>1031176324</v>
+        <v>1015483065</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
-        <v>1000851606</v>
+        <v>1015483065</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <v>24079693714</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
-        <v>1022388637</v>
+        <v>1018513149</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1">
-        <v>1022388637</v>
+        <v>1018513149</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="H24" s="1">
+        <v>488409335293</v>
       </c>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
-        <v>1000850867</v>
+        <v>1022402381</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
-        <v>1000850867</v>
+        <v>1022402381</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1">
-        <v>488413330090</v>
+        <v>62755802501</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1">
-        <v>1007385127</v>
+        <v>1143830905</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1">
-        <v>1007385127</v>
+        <v>1143830905</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="H26" s="1">
+        <v>488415028312</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
-        <v>1014286703</v>
+        <v>1193547372</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
-        <v>1014286703</v>
+        <v>1193547372</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1">
-        <v>24076976256</v>
+        <v>4802026666</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>43141043</v>
+        <v>1007437226</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1">
-        <v>43141043</v>
+        <v>1007437226</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1">
-        <v>65078588581</v>
+        <v>15488651266</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
-        <v>1022387083</v>
+        <v>138814735</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
-        <v>1022387083</v>
+        <v>5138814735</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1">
-        <v>20206715821</v>
+        <v>17498553737</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1">
-        <v>22403353</v>
+        <v>1000990411</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
-        <v>1014312095</v>
+        <v>40145176</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5092005696</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1">
-        <v>1005603808</v>
+        <v>1010181242</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1">
-        <v>1005603808</v>
+        <v>1010181242</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1">
-        <v>202013795</v>
+        <v>24051721084</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
-        <v>21421212</v>
+        <v>1014287758</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1014287758</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="H32" s="1">
+        <v>24069441916</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1">
-        <v>1019047766</v>
+        <v>68292606</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1">
-        <v>1019047766</v>
+        <v>68292606</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1">
-        <v>9400853074</v>
+        <v>103314365</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
-        <v>1093761541</v>
+        <v>1030696394</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>1093761541</v>
+        <v>1030696394</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1">
-        <v>1013642950</v>
+        <v>1235252406</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1">
-        <v>1013642950</v>
+        <v>1235252406</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1">
-        <v>24044264235</v>
+        <v>488403899989</v>
       </c>
       <c r="I35" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
-        <v>1003252479</v>
+        <v>1031180541</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1">
-        <v>1003252479</v>
+        <v>1031180541</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1">
-        <v>21393908103</v>
+        <v>488406927233</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B37" s="1">
-        <v>1192925062</v>
+        <v>1000784707</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1">
-        <v>1192925062</v>
+        <v>1000784707</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1">
-        <v>38555866574</v>
+        <v>488413189173</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1">
-        <v>1014290430</v>
+        <v>148838783</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1">
-        <v>1014290430</v>
+        <v>1034312131</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1">
-        <v>58287751042</v>
+        <v>22769751045</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1">
-        <v>1010241962</v>
+        <v>27852819</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="1">
-        <v>1010241962</v>
-      </c>
-      <c r="F39">
-        <v>1010241962</v>
+        <v>1000792990</v>
+      </c>
+      <c r="F39" t="s">
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1">
-        <v>1033118322</v>
+        <v>1023981157</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1">
-        <v>1031183222</v>
+        <v>1023981157</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1">
-        <v>704785976</v>
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1">
-        <v>1193420156</v>
+        <v>1010228756</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1">
-        <v>1193420156</v>
+        <v>1010228756</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1">
-        <v>63908438151</v>
+        <v>65808471927</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="1">
-        <v>1070821797</v>
+        <v>1001054528</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
-        <v>1081403656</v>
+        <v>1012444709</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1">
-        <v>4622034865</v>
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1">
-        <v>1083042633</v>
+        <v>1000623069</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1">
-        <v>3122596359</v>
+        <v>1000623069</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1">
-        <v>51600017458</v>
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1">
-        <v>1020817810</v>
+        <v>1026306100</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1">
-        <v>1020817810</v>
+        <v>1023966080</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>41</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H44" s="1">
+        <v>24098174409</v>
+      </c>
+      <c r="I44"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1">
-        <v>1000952893</v>
+        <v>1022375692</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1">
-        <v>1000952893</v>
+        <v>1022375692</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1">
-        <v>24102253371</v>
+        <v>390181790</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1">
-        <v>43547138</v>
+        <v>1023888816</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E46" s="1">
-        <v>43547138</v>
+        <v>1023888816</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="1">
-        <v>20735795681</v>
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1">
-        <v>1073968055</v>
+        <v>1053845260</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1">
-        <v>1073968055</v>
+        <v>1022375692</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1">
-        <v>488415011532</v>
+        <v>390181790</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1">
-        <v>1019090577</v>
+        <v>1233501956</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1233501956</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1">
-        <v>24091367969</v>
+        <v>91201124404</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -2398,31 +2930,31 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1">
-        <v>1020836601</v>
+        <v>1012446384</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
-        <v>1000572270</v>
+        <v>12233501956</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
+      </c>
+      <c r="H49" s="1">
+        <v>91201124404</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2430,28 +2962,28 @@
         <v>129</v>
       </c>
       <c r="B50" s="1">
-        <v>1007228474</v>
+        <v>1019099613</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1">
-        <v>1007228474</v>
+        <v>1019099613</v>
       </c>
       <c r="F50" t="s">
         <v>130</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1">
-        <v>488412113836</v>
+        <v>268252426</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2459,28 +2991,28 @@
         <v>131</v>
       </c>
       <c r="B51" s="1">
-        <v>14873050</v>
+        <v>1012393169</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1">
-        <v>5075075620</v>
+        <v>1012393169</v>
       </c>
       <c r="F51" t="s">
         <v>132</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1">
-        <v>66602105955</v>
+        <v>488411573204</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2488,86 +3020,86 @@
         <v>133</v>
       </c>
       <c r="B52" s="1">
-        <v>155577372</v>
+        <v>1000122810</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1">
-        <v>15557372</v>
+        <v>1012393169</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1">
-        <v>268256708</v>
+        <v>488411573204</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1233691732</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1233691732</v>
+      </c>
+      <c r="F53" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="1">
-        <v>147577245</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1">
-        <v>147577245</v>
-      </c>
-      <c r="F53" t="s">
-        <v>136</v>
-      </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1">
-        <v>94603276099</v>
+        <v>91213207216</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1023000217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1023000217</v>
+      </c>
+      <c r="F54" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="1">
-        <v>937332820011990</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1">
-        <v>5121430328</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="1">
-        <v>19800051242</v>
-      </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2575,28 +3107,28 @@
         <v>139</v>
       </c>
       <c r="B55" s="1">
-        <v>1118576425</v>
+        <v>1233510580</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1">
-        <v>1118576425</v>
+        <v>1233691732</v>
       </c>
       <c r="F55" t="s">
         <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1">
-        <v>488410908104</v>
+        <v>91213207216</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2604,28 +3136,28 @@
         <v>141</v>
       </c>
       <c r="B56" s="1">
-        <v>1018502615</v>
+        <v>1031176324</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1">
-        <v>39688346</v>
+        <v>1000851606</v>
       </c>
       <c r="F56" t="s">
         <v>142</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2633,289 +3165,289 @@
         <v>144</v>
       </c>
       <c r="B57" s="1">
-        <v>1063722902</v>
+        <v>1022388637</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1">
-        <v>1063722902</v>
+        <v>1022388637</v>
       </c>
       <c r="F57" t="s">
         <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1">
-        <v>24085368284</v>
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="I57" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="1">
-        <v>1033825141</v>
+        <v>1000850867</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1">
-        <v>1033825141</v>
+        <v>1000850867</v>
       </c>
       <c r="F58" t="s">
         <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1">
-        <v>15407414028</v>
+        <v>488413330090</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1007385127</v>
+      </c>
+      <c r="C59" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="1">
-        <v>1019102011</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E59" s="1">
-        <v>1019102011</v>
+        <v>1007385127</v>
       </c>
       <c r="F59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B60" s="1">
-        <v>25918152</v>
+        <v>1014286703</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E60" s="1">
-        <v>1016083198</v>
+        <v>1014286703</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1">
-        <v>58214438281</v>
+        <v>24076976256</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B61" s="1">
-        <v>26750446</v>
+        <v>43141043</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E61" s="1">
-        <v>1016083198</v>
+        <v>43141043</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1">
-        <v>58214438281</v>
+        <v>65078588581</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B62" s="1">
-        <v>141888668</v>
+        <v>1022387083</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E62" s="1">
-        <v>5141888668</v>
+        <v>1022387083</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1">
-        <v>22900000480</v>
+        <v>20206715821</v>
       </c>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B63" s="1">
-        <v>925922626031995</v>
+        <v>22403353</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>925922626031995</v>
+        <v>1030583764</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B64" s="1">
-        <v>1000693093</v>
+        <v>1005603808</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E64" s="1">
-        <v>1000693093</v>
+        <v>1005603808</v>
       </c>
       <c r="F64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>161</v>
+        <v>14</v>
+      </c>
+      <c r="H64" s="1">
+        <v>202013795</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1019132218</v>
+        <v>164</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1">
-        <v>3103130743</v>
+        <v>1015448211</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="1">
-        <v>18089428340</v>
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B66" s="1">
-        <v>1096223327</v>
+        <v>1015448211</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1">
-        <v>1096223327</v>
+        <v>1015448211</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G66" t="s">
-        <v>166</v>
-      </c>
-      <c r="H66" s="1">
-        <v>413650066181</v>
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2923,10 +3455,10 @@
         <v>168</v>
       </c>
       <c r="B67" s="1">
-        <v>1015442689</v>
+        <v>21421212</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -2938,100 +3470,100 @@
         <v>170</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1">
-        <v>16807098385</v>
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" s="1">
-        <v>1018517520</v>
+        <v>52362368</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E68" s="1">
-        <v>1018517520</v>
+        <v>52362368</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1">
-        <v>488415015905</v>
+        <v>488410430232</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B69" s="1">
-        <v>1020841939</v>
+        <v>1019047766</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E69" s="1">
-        <v>1020841939</v>
+        <v>1019047766</v>
       </c>
       <c r="F69" t="s">
         <v>174</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="H69" s="1">
+        <v>9400853074</v>
       </c>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1093761541</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1093761541</v>
+      </c>
+      <c r="F70" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="1">
-        <v>1003527283</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
-      </c>
-      <c r="D70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="1">
-        <v>23800595</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="1">
-        <v>82797567074</v>
-      </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3039,28 +3571,28 @@
         <v>178</v>
       </c>
       <c r="B71" s="1">
-        <v>1020842234</v>
+        <v>929596625011998</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="1">
-        <v>1020842234</v>
+        <v>936637018071992</v>
       </c>
       <c r="F71" t="s">
         <v>179</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" s="1">
-        <v>4532014428</v>
+        <v>24099881647</v>
       </c>
       <c r="I71" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3068,199 +3600,199 @@
         <v>180</v>
       </c>
       <c r="B72" s="1">
-        <v>1020744469</v>
+        <v>12333694766</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1">
-        <v>1020744469</v>
+        <v>1233694766</v>
       </c>
       <c r="F72" t="s">
         <v>181</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4802023924</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B73" s="1">
-        <v>52744269</v>
+        <v>100093328061999</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="1">
-        <v>52744269</v>
+        <v>1007385127</v>
       </c>
       <c r="F73" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="1">
-        <v>58264900121</v>
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1">
-        <v>1000182516</v>
+        <v>1001184301</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1">
-        <v>1000182516</v>
+        <v>1001184301</v>
       </c>
       <c r="F74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G74" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H74" s="1">
-        <v>24101739322</v>
+        <v>257233221</v>
       </c>
       <c r="I74" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1">
-        <v>1031160037</v>
+        <v>52964748</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E75" s="1">
-        <v>1031160037</v>
+        <v>52964748</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I75" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B76" s="1">
-        <v>1070920316</v>
+        <v>1073968055</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1">
-        <v>1070920316</v>
+        <v>1073968055</v>
       </c>
       <c r="F76" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" s="1">
-        <v>24101751726</v>
+        <v>488415011532</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B77" s="1">
-        <v>1087807696</v>
+        <v>25918152</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="1">
-        <v>1087807696</v>
+        <v>1016083198</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="H77" s="1">
+        <v>58214438281</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B78" s="1">
-        <v>710114503072000</v>
+        <v>26750446</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E78" s="1">
-        <v>903007611021990</v>
+        <v>1016083198</v>
       </c>
       <c r="F78" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1">
-        <v>24092635463</v>
+        <v>58214438281</v>
       </c>
       <c r="I78" t="s">
         <v>27</v>
@@ -3268,118 +3800,2467 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B79" s="1">
-        <v>1012463884</v>
+        <v>996357315041997</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="1">
-        <v>1012463884</v>
+        <v>3207340434</v>
       </c>
       <c r="F79" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1">
-        <v>24100065998</v>
+        <v>46700000711</v>
       </c>
       <c r="I79" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B80" s="1">
-        <v>1233896739</v>
+        <v>1007732710</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1233896739</v>
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="F80" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>202</v>
+        <v>32</v>
+      </c>
+      <c r="H80" s="1">
+        <v>802263905</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B81" s="1">
-        <v>1000832110</v>
+        <v>1000471097</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1">
-        <v>1000832110</v>
+        <v>1000471097</v>
       </c>
       <c r="F81" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I81" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1004350615</v>
+      </c>
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1004350615</v>
+      </c>
+      <c r="F82" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1">
+        <v>488417541791</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1007497266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1007497266</v>
+      </c>
+      <c r="F83" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1">
+        <v>4884417572218</v>
+      </c>
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="1">
+        <v>40395182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1">
+        <v>40395182</v>
+      </c>
+      <c r="F84" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1">
+        <v>24100827031</v>
+      </c>
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1013642950</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1013642950</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
       </c>
-      <c r="B82" s="1">
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1">
+        <v>24044264235</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1003252479</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1003252479</v>
+      </c>
+      <c r="F86" t="s">
+        <v>208</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1">
+        <v>21393908103</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1192925062</v>
+      </c>
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1192925062</v>
+      </c>
+      <c r="F87" t="s">
+        <v>210</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1">
+        <v>38555866574</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1014290430</v>
+      </c>
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1014290430</v>
+      </c>
+      <c r="F88" t="s">
+        <v>212</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1">
+        <v>58287751042</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1010241962</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1010241962</v>
+      </c>
+      <c r="F89">
+        <v>1010241962</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1033118322</v>
+      </c>
+      <c r="C90" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1031183222</v>
+      </c>
+      <c r="F90" t="s">
+        <v>216</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1">
+        <v>704785976</v>
+      </c>
+      <c r="I90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>218</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1193420156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1193420156</v>
+      </c>
+      <c r="F91" t="s">
+        <v>219</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1">
+        <v>63908438151</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1070751386</v>
+      </c>
+      <c r="C92" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1070751386</v>
+      </c>
+      <c r="F92" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1">
+        <v>66709264908</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>223</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1000992244</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1000134587</v>
+      </c>
+      <c r="F93" t="s">
+        <v>224</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1000134587</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1000134587</v>
+      </c>
+      <c r="F94" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1032467238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1032467238</v>
+      </c>
+      <c r="F95" t="s">
+        <v>228</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1">
+        <v>24102384042</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>229</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1019080904</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1019080904</v>
+      </c>
+      <c r="F96" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" s="1">
+        <v>28409898</v>
+      </c>
+      <c r="C97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1">
+        <v>22366795</v>
+      </c>
+      <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1">
+        <v>925922626031995</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1010103531</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1010103531</v>
+      </c>
+      <c r="F98" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3232286664</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>237</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1030679605</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1018505694</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1002154394</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1002154394</v>
+      </c>
+      <c r="F100" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3113373704</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1233691212</v>
+      </c>
+      <c r="C101" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1233691212</v>
+      </c>
+      <c r="F101" t="s">
+        <v>243</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="1">
+        <v>24102252518</v>
+      </c>
+      <c r="I101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="1">
+        <v>67000896</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1">
+        <v>67000896</v>
+      </c>
+      <c r="F102" t="s">
+        <v>245</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1">
+        <v>16800056806</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>246</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1019126756</v>
+      </c>
+      <c r="C103" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1019126756</v>
+      </c>
+      <c r="F103" t="s">
+        <v>247</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>249</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1018452399</v>
+      </c>
+      <c r="C104" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1018452399</v>
+      </c>
+      <c r="F104" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3002930501</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1233891901</v>
+      </c>
+      <c r="C105" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1233891901</v>
+      </c>
+      <c r="F105" t="s">
+        <v>252</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="1">
+        <v>3503742515</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1015456178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1015456178</v>
+      </c>
+      <c r="F106" t="s">
+        <v>253</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1000320257</v>
+      </c>
+      <c r="C107" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1015457667</v>
+      </c>
+      <c r="F107" t="s">
+        <v>256</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="1">
+        <v>46700001237</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1070821797</v>
+      </c>
+      <c r="C108" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1081403656</v>
+      </c>
+      <c r="F108" t="s">
+        <v>258</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="1">
+        <v>4622034865</v>
+      </c>
+      <c r="I108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1083042633</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="1">
+        <v>3122596359</v>
+      </c>
+      <c r="F109" t="s">
+        <v>260</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1">
+        <v>51600017458</v>
+      </c>
+      <c r="I109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1020817810</v>
+      </c>
+      <c r="C110" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1020817810</v>
+      </c>
+      <c r="F110" t="s">
+        <v>262</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>264</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1000952893</v>
+      </c>
+      <c r="C111" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1000952893</v>
+      </c>
+      <c r="F111" t="s">
+        <v>265</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="1">
+        <v>24102253371</v>
+      </c>
+      <c r="I111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>266</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43547138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1">
+        <v>43547138</v>
+      </c>
+      <c r="F112" t="s">
+        <v>267</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="1">
+        <v>20735795681</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1019090577</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F113" t="s">
+        <v>270</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="1">
+        <v>24091367969</v>
+      </c>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1020836601</v>
+      </c>
+      <c r="C114" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1000572270</v>
+      </c>
+      <c r="F114" t="s">
+        <v>272</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1000254936</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="1">
+        <v>100254936</v>
+      </c>
+      <c r="F115" t="s">
+        <v>274</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="1">
+        <v>4894450064946674</v>
+      </c>
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" s="1">
+        <v>52128307</v>
+      </c>
+      <c r="C116" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1">
+        <v>52128307</v>
+      </c>
+      <c r="F116" t="s">
+        <v>276</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="1">
+        <v>9170450606</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1007228474</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1007228474</v>
+      </c>
+      <c r="F117" t="s">
+        <v>278</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="1">
+        <v>488412113836</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" s="1">
+        <v>14873050</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5075075620</v>
+      </c>
+      <c r="F118" t="s">
+        <v>280</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="1">
+        <v>66602105955</v>
+      </c>
+      <c r="I118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="1">
+        <v>155577372</v>
+      </c>
+      <c r="C119" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="1">
+        <v>15557372</v>
+      </c>
+      <c r="F119" t="s">
+        <v>282</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="1">
+        <v>268256708</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="1">
+        <v>147577245</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="1">
+        <v>147577245</v>
+      </c>
+      <c r="F120" t="s">
+        <v>284</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="1">
+        <v>94603276099</v>
+      </c>
+      <c r="I120" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121" s="1">
+        <v>937332820011990</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="1">
+        <v>5121430328</v>
+      </c>
+      <c r="F121" t="s">
+        <v>286</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="1">
+        <v>19800051242</v>
+      </c>
+      <c r="I121" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="1">
+        <v>939980927121974</v>
+      </c>
+      <c r="C122" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F122" t="s">
+        <v>289</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1007474323</v>
+      </c>
+      <c r="C123" t="s">
+        <v>233</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1007474323</v>
+      </c>
+      <c r="F123" t="s">
+        <v>292</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="1">
+        <v>488409149074</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" s="1">
+        <v>26045500</v>
+      </c>
+      <c r="C124" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <v>5088224475</v>
+      </c>
+      <c r="F124" t="s">
+        <v>294</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="1">
+        <v>20700000213</v>
+      </c>
+      <c r="I124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1118576425</v>
+      </c>
+      <c r="C125" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1118576425</v>
+      </c>
+      <c r="F125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="1">
+        <v>488410908104</v>
+      </c>
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1001117337</v>
+      </c>
+      <c r="C126" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1001117337</v>
+      </c>
+      <c r="F126" t="s">
+        <v>297</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="1">
+        <v>24102557251</v>
+      </c>
+      <c r="I126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="1">
+        <v>151939444</v>
+      </c>
+      <c r="C127" t="s">
+        <v>233</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="1">
+        <v>151939444</v>
+      </c>
+      <c r="F127" t="s">
+        <v>299</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="1">
+        <v>451800191087</v>
+      </c>
+      <c r="I127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1015408762</v>
+      </c>
+      <c r="C128" t="s">
+        <v>233</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1015408762</v>
+      </c>
+      <c r="F128" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="1">
+        <v>91200321206</v>
+      </c>
+      <c r="I128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1018502615</v>
+      </c>
+      <c r="C129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1">
+        <v>39688346</v>
+      </c>
+      <c r="F129" t="s">
+        <v>303</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>305</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1063722902</v>
+      </c>
+      <c r="C130" t="s">
+        <v>233</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1063722902</v>
+      </c>
+      <c r="F130" t="s">
+        <v>306</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="1">
+        <v>24085368284</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>307</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1033825141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1033825141</v>
+      </c>
+      <c r="F131" t="s">
+        <v>308</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="1">
+        <v>15407414028</v>
+      </c>
+      <c r="I131" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>309</v>
+      </c>
+      <c r="B132" s="1">
+        <v>52340414</v>
+      </c>
+      <c r="C132" t="s">
+        <v>233</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="1">
+        <v>52340414</v>
+      </c>
+      <c r="F132" t="s">
+        <v>310</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="1">
+        <v>91214280821</v>
+      </c>
+      <c r="I132" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>311</v>
+      </c>
+      <c r="B133" s="1">
+        <v>144788512</v>
+      </c>
+      <c r="C133" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="1">
+        <v>5144788512</v>
+      </c>
+      <c r="F133" t="s">
+        <v>312</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" s="1">
+        <v>24100013254</v>
+      </c>
+      <c r="I133" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1019102011</v>
+      </c>
+      <c r="C134" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1019102011</v>
+      </c>
+      <c r="F134" t="s">
+        <v>314</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>316</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1019003223</v>
+      </c>
+      <c r="C135" t="s">
+        <v>233</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135" s="1">
+        <v>101903223</v>
+      </c>
+      <c r="F135" t="s">
+        <v>317</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="1">
+        <v>4382028340</v>
+      </c>
+      <c r="I135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>318</v>
+      </c>
+      <c r="B136" s="1">
+        <v>141888668</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="1">
+        <v>5141888668</v>
+      </c>
+      <c r="F136" t="s">
+        <v>319</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="1">
+        <v>22900000480</v>
+      </c>
+      <c r="I136" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="1">
+        <v>925922626031995</v>
+      </c>
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="1">
+        <v>925922626031995</v>
+      </c>
+      <c r="F137" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1000693093</v>
+      </c>
+      <c r="C138" t="s">
+        <v>233</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1000693093</v>
+      </c>
+      <c r="F138" t="s">
+        <v>323</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I138" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>325</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1000807741</v>
+      </c>
+      <c r="C139" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1001117384</v>
+      </c>
+      <c r="F139" t="s">
+        <v>326</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" s="1">
+        <v>69900015445</v>
+      </c>
+      <c r="I139" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>327</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1019132218</v>
+      </c>
+      <c r="C140" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3103130743</v>
+      </c>
+      <c r="F140" t="s">
+        <v>328</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="1">
+        <v>18089428340</v>
+      </c>
+      <c r="I140" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>329</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1096223327</v>
+      </c>
+      <c r="C141" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1096223327</v>
+      </c>
+      <c r="F141" t="s">
+        <v>330</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="1">
+        <v>24102712553</v>
+      </c>
+      <c r="I141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>331</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1019143538</v>
+      </c>
+      <c r="C142" t="s">
+        <v>233</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1019143538</v>
+      </c>
+      <c r="F142" t="s">
+        <v>332</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="1">
+        <v>121458778154</v>
+      </c>
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>333</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1015442689</v>
+      </c>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F143" t="s">
+        <v>335</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="1">
+        <v>16807098385</v>
+      </c>
+      <c r="I143" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>336</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1018517520</v>
+      </c>
+      <c r="C144" t="s">
+        <v>233</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1018517520</v>
+      </c>
+      <c r="F144" t="s">
+        <v>337</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="1">
+        <v>488415015905</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1020841939</v>
+      </c>
+      <c r="C145" t="s">
+        <v>233</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1020841939</v>
+      </c>
+      <c r="F145" t="s">
+        <v>339</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>341</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1003527283</v>
+      </c>
+      <c r="C146" t="s">
+        <v>233</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="1">
+        <v>23800595</v>
+      </c>
+      <c r="F146" t="s">
+        <v>342</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1">
+        <v>82797567074</v>
+      </c>
+      <c r="I146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>343</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1010084689</v>
+      </c>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1010084689</v>
+      </c>
+      <c r="F147" t="s">
+        <v>344</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1010084689</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1020842234</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1020842234</v>
+      </c>
+      <c r="F148" t="s">
+        <v>346</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1">
+        <v>4532014428</v>
+      </c>
+      <c r="I148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1020744469</v>
+      </c>
+      <c r="C149" t="s">
+        <v>233</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1020744469</v>
+      </c>
+      <c r="F149" t="s">
+        <v>348</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>350</v>
+      </c>
+      <c r="B150" s="1">
+        <v>52744269</v>
+      </c>
+      <c r="C150" t="s">
+        <v>233</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150" s="1">
+        <v>52744269</v>
+      </c>
+      <c r="F150" t="s">
+        <v>351</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1">
+        <v>58264900121</v>
+      </c>
+      <c r="I150" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1000182516</v>
+      </c>
+      <c r="C151" t="s">
+        <v>233</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1000182516</v>
+      </c>
+      <c r="F151" t="s">
+        <v>353</v>
+      </c>
+      <c r="G151" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151" s="1">
+        <v>24101739322</v>
+      </c>
+      <c r="I151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>354</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1031160037</v>
+      </c>
+      <c r="C152" t="s">
+        <v>233</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1031160037</v>
+      </c>
+      <c r="F152" t="s">
+        <v>355</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1070920316</v>
+      </c>
+      <c r="C153" t="s">
+        <v>233</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1070920316</v>
+      </c>
+      <c r="F153" t="s">
+        <v>358</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="1">
+        <v>24101751726</v>
+      </c>
+      <c r="I153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>359</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1087807696</v>
+      </c>
+      <c r="C154" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1087807696</v>
+      </c>
+      <c r="F154" t="s">
+        <v>360</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I154" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155" s="1">
+        <v>21045082</v>
+      </c>
+      <c r="C155" t="s">
+        <v>233</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="1">
+        <v>108249136</v>
+      </c>
+      <c r="F155" t="s">
+        <v>363</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I155" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>365</v>
+      </c>
+      <c r="B156" s="1">
+        <v>27642587</v>
+      </c>
+      <c r="C156" t="s">
+        <v>233</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1130245934</v>
+      </c>
+      <c r="F156" t="s">
+        <v>366</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>368</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1120356523</v>
+      </c>
+      <c r="C157" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1120362263</v>
+      </c>
+      <c r="F157" t="s">
+        <v>369</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>371</v>
+      </c>
+      <c r="B158" s="1">
+        <v>710114503072000</v>
+      </c>
+      <c r="C158" t="s">
+        <v>233</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="1">
+        <v>903007611021990</v>
+      </c>
+      <c r="F158" t="s">
+        <v>372</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="1">
+        <v>24092635463</v>
+      </c>
+      <c r="I158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>373</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1012463884</v>
+      </c>
+      <c r="C159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1012463884</v>
+      </c>
+      <c r="F159" t="s">
+        <v>374</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="1">
+        <v>24100065998</v>
+      </c>
+      <c r="I159" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1003633576</v>
+      </c>
+      <c r="C160" t="s">
+        <v>233</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1003633576</v>
+      </c>
+      <c r="F160" t="s">
+        <v>376</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>378</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1000832110</v>
+      </c>
+      <c r="C161" t="s">
+        <v>233</v>
+      </c>
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1000832110</v>
+      </c>
+      <c r="F161" t="s">
+        <v>379</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>381</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1192758165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>233</v>
+      </c>
+      <c r="D162" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1192758165</v>
+      </c>
+      <c r="F162" t="s">
+        <v>382</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="1">
         <v>24374565</v>
       </c>
-      <c r="C82" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1019132218</v>
-      </c>
-      <c r="F82" t="s">
-        <v>207</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I82" t="s">
-        <v>18</v>
+      <c r="C163" t="s">
+        <v>233</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="1">
+        <v>5144788512</v>
+      </c>
+      <c r="F163" t="s">
+        <v>385</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I163" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
